--- a/Data/student_list.xlsx
+++ b/Data/student_list.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qinli/Mirror/Teaching/Biostats_ECNU/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{E73221F2-7FE8-B040-99E2-6F24EF02D067}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5745F5E-61C1-5E48-9200-B74F7A57E8C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" activeTab="1" xr2:uid="{96E2007E-2DE5-5149-96F3-39B2E4AA978E}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{96E2007E-2DE5-5149-96F3-39B2E4AA978E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Mon" sheetId="1" r:id="rId1"/>
-    <sheet name="Wed" sheetId="2" r:id="rId2"/>
+    <sheet name="Mon" sheetId="3" r:id="rId1"/>
+    <sheet name="Wed" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="113">
   <si>
     <t>index</t>
   </si>
@@ -44,33 +44,18 @@
     <t>std_id</t>
   </si>
   <si>
-    <t>10213901012</t>
-  </si>
-  <si>
-    <t>10214501004</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
-    <t>Gender</t>
-  </si>
-  <si>
     <t>郝蕴淇</t>
   </si>
   <si>
-    <t>Female</t>
-  </si>
-  <si>
     <t>丁蓓霄</t>
   </si>
   <si>
     <t>陈天昊</t>
   </si>
   <si>
-    <t>Male</t>
-  </si>
-  <si>
     <t>赵丽洁</t>
   </si>
   <si>
@@ -80,24 +65,15 @@
     <t>刘耘瑄</t>
   </si>
   <si>
-    <t>刘畅乐</t>
-  </si>
-  <si>
     <t>方张越</t>
   </si>
   <si>
     <t>陈泳旭</t>
   </si>
   <si>
-    <t>梁宇恒</t>
-  </si>
-  <si>
     <t>兰艳</t>
   </si>
   <si>
-    <t>杜瑛</t>
-  </si>
-  <si>
     <t>杨笑</t>
   </si>
   <si>
@@ -107,9 +83,6 @@
     <t>任伟峰</t>
   </si>
   <si>
-    <t>沈瑶</t>
-  </si>
-  <si>
     <t>特诺恩</t>
   </si>
   <si>
@@ -182,63 +155,6 @@
     <t>娄朗</t>
   </si>
   <si>
-    <t>10221910048</t>
-  </si>
-  <si>
-    <t>10221910050</t>
-  </si>
-  <si>
-    <t>10221910051</t>
-  </si>
-  <si>
-    <t>10221910052</t>
-  </si>
-  <si>
-    <t>10221910053</t>
-  </si>
-  <si>
-    <t>10221910055</t>
-  </si>
-  <si>
-    <t>10221910056</t>
-  </si>
-  <si>
-    <t>10221910057</t>
-  </si>
-  <si>
-    <t>10221910058</t>
-  </si>
-  <si>
-    <t>10221910059</t>
-  </si>
-  <si>
-    <t>10221910060</t>
-  </si>
-  <si>
-    <t>10221910061</t>
-  </si>
-  <si>
-    <t>10221910062</t>
-  </si>
-  <si>
-    <t>10221910063</t>
-  </si>
-  <si>
-    <t>10221910064</t>
-  </si>
-  <si>
-    <t>10221910065</t>
-  </si>
-  <si>
-    <t>10221910066</t>
-  </si>
-  <si>
-    <t>10221910067</t>
-  </si>
-  <si>
-    <t>10224302418</t>
-  </si>
-  <si>
     <t>徐冰清</t>
   </si>
   <si>
@@ -281,9 +197,6 @@
     <t>陈欣宇</t>
   </si>
   <si>
-    <t>贡觉措姆</t>
-  </si>
-  <si>
     <t>龙嘉和*</t>
   </si>
   <si>
@@ -302,9 +215,6 @@
     <t>次仁旺姆</t>
   </si>
   <si>
-    <t>孙甲安</t>
-  </si>
-  <si>
     <t>杨媛祯</t>
   </si>
   <si>
@@ -317,42 +227,21 @@
     <t>夏思颖</t>
   </si>
   <si>
-    <t>谭芷涵</t>
-  </si>
-  <si>
     <t>刘安恬</t>
   </si>
   <si>
     <t>赵柯羽</t>
   </si>
   <si>
-    <t>侍伯存</t>
-  </si>
-  <si>
-    <t>张炜榣</t>
-  </si>
-  <si>
-    <t>刘可扬</t>
-  </si>
-  <si>
-    <t>史佳男</t>
-  </si>
-  <si>
     <t>董华洁</t>
   </si>
   <si>
-    <t>张艺馨</t>
-  </si>
-  <si>
     <t>胡杨海玥</t>
   </si>
   <si>
     <t>乐力天</t>
   </si>
   <si>
-    <t>梅婷</t>
-  </si>
-  <si>
     <t>张婧喆</t>
   </si>
   <si>
@@ -374,27 +263,15 @@
     <t>许菊露</t>
   </si>
   <si>
-    <t>冯泽琪</t>
-  </si>
-  <si>
     <t>张嫣然</t>
   </si>
   <si>
     <t>张婉婷</t>
   </si>
   <si>
-    <t>朱陶红</t>
-  </si>
-  <si>
-    <t>陈俊杰</t>
-  </si>
-  <si>
     <t>胡宇捷</t>
   </si>
   <si>
-    <t>周灵皓</t>
-  </si>
-  <si>
     <t>李子瑄</t>
   </si>
   <si>
@@ -471,6 +348,33 @@
   </si>
   <si>
     <t>阮雅洁</t>
+  </si>
+  <si>
+    <t>苏杨子</t>
+  </si>
+  <si>
+    <t>王婷</t>
+  </si>
+  <si>
+    <t>张文欣</t>
+  </si>
+  <si>
+    <t>程晟芳</t>
+  </si>
+  <si>
+    <t>贡觉措姆*</t>
+  </si>
+  <si>
+    <t>李娜</t>
+  </si>
+  <si>
+    <t>Week1</t>
+  </si>
+  <si>
+    <t>Week2</t>
+  </si>
+  <si>
+    <t>Week3</t>
   </si>
 </sst>
 </file>
@@ -822,19 +726,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6318471-9752-B44E-93FD-F693913C8AF3}">
-  <dimension ref="A1:D60"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9411A8B7-F314-3D47-805A-27A1F633D457}">
+  <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="16.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.83203125" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -842,836 +748,671 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+      <c r="E1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
-        <v>10210760415</v>
+      <c r="B2">
+        <v>10201910402</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
-        <v>10210760416</v>
+      <c r="B3">
+        <v>10210760415</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
-        <v>10211900432</v>
+      <c r="B4">
+        <v>10210760416</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>2</v>
+      <c r="B5">
+        <v>10211900432</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
-        <v>10213901016</v>
+      <c r="B6">
+        <v>10211910009</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
-        <v>10213901027</v>
+      <c r="B7">
+        <v>10213901012</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
-        <v>10213901403</v>
+      <c r="B8">
+        <v>10213901016</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>3</v>
+      <c r="B9">
+        <v>10213901027</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="1">
-        <v>10214507008</v>
+      <c r="B10">
+        <v>10214501004</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="1">
-        <v>10214703413</v>
+      <c r="B11">
+        <v>10214507008</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="1">
-        <v>10221900405</v>
+      <c r="B12">
+        <v>10221900402</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="1">
-        <v>10221900406</v>
+      <c r="B13">
+        <v>10221900405</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14">
         <v>10221900408</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15">
         <v>10221900411</v>
       </c>
       <c r="C15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16">
         <v>10221900433</v>
       </c>
       <c r="C16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="1">
-        <v>10221900448</v>
+      <c r="B17">
+        <v>10221900440</v>
       </c>
       <c r="C17" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18">
         <v>10221910001</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19">
         <v>10221910003</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20">
         <v>10221910004</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21">
         <v>10221910006</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22">
         <v>10221910007</v>
       </c>
       <c r="C22" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23">
         <v>10221910008</v>
       </c>
       <c r="C23" t="s">
-        <v>29</v>
-      </c>
-      <c r="D23" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24">
         <v>10221910009</v>
       </c>
       <c r="C24" t="s">
-        <v>30</v>
-      </c>
-      <c r="D24" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25">
         <v>10221910011</v>
       </c>
       <c r="C25" t="s">
-        <v>31</v>
-      </c>
-      <c r="D25" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26">
         <v>10221910012</v>
       </c>
       <c r="C26" t="s">
-        <v>32</v>
-      </c>
-      <c r="D26" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27">
         <v>10221910023</v>
       </c>
       <c r="C27" t="s">
-        <v>33</v>
-      </c>
-      <c r="D27" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28">
         <v>10221910024</v>
       </c>
       <c r="C28" t="s">
-        <v>34</v>
-      </c>
-      <c r="D28" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29">
         <v>10221910026</v>
       </c>
       <c r="C29" t="s">
-        <v>35</v>
-      </c>
-      <c r="D29" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30">
         <v>10221910027</v>
       </c>
       <c r="C30" t="s">
-        <v>36</v>
-      </c>
-      <c r="D30" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31">
         <v>10221910028</v>
       </c>
       <c r="C31" t="s">
-        <v>37</v>
-      </c>
-      <c r="D31" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32">
         <v>10221910030</v>
       </c>
       <c r="C32" t="s">
-        <v>38</v>
-      </c>
-      <c r="D32" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33">
         <v>10221910031</v>
       </c>
       <c r="C33" t="s">
-        <v>39</v>
-      </c>
-      <c r="D33" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34">
         <v>10221910032</v>
       </c>
       <c r="C34" t="s">
-        <v>40</v>
-      </c>
-      <c r="D34" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35">
         <v>10221910034</v>
       </c>
       <c r="C35" t="s">
-        <v>41</v>
-      </c>
-      <c r="D35" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36">
         <v>10221910035</v>
       </c>
       <c r="C36" t="s">
-        <v>42</v>
-      </c>
-      <c r="D36" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37">
         <v>10221910039</v>
       </c>
       <c r="C37" t="s">
-        <v>43</v>
-      </c>
-      <c r="D37" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38">
         <v>10221910040</v>
       </c>
       <c r="C38" t="s">
-        <v>44</v>
-      </c>
-      <c r="D38" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B39">
         <v>10221910042</v>
       </c>
       <c r="C39" t="s">
-        <v>45</v>
-      </c>
-      <c r="D39" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B40">
         <v>10221910043</v>
       </c>
       <c r="C40" t="s">
-        <v>46</v>
-      </c>
-      <c r="D40" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B41">
         <v>10221910045</v>
       </c>
       <c r="C41" t="s">
-        <v>47</v>
-      </c>
-      <c r="D41" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>48</v>
+      <c r="B42">
+        <v>10221910048</v>
       </c>
       <c r="C42" t="s">
-        <v>85</v>
-      </c>
-      <c r="D42" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>49</v>
+      <c r="B43">
+        <v>10221910050</v>
       </c>
       <c r="C43" t="s">
-        <v>67</v>
-      </c>
-      <c r="D43" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>50</v>
+      <c r="B44">
+        <v>10221910051</v>
       </c>
       <c r="C44" t="s">
-        <v>68</v>
-      </c>
-      <c r="D44" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>51</v>
+      <c r="B45">
+        <v>10221910052</v>
       </c>
       <c r="C45" t="s">
-        <v>69</v>
-      </c>
-      <c r="D45" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>52</v>
+      <c r="B46">
+        <v>10221910053</v>
       </c>
       <c r="C46" t="s">
-        <v>70</v>
-      </c>
-      <c r="D46" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>53</v>
+      <c r="B47">
+        <v>10221910055</v>
       </c>
       <c r="C47" t="s">
-        <v>71</v>
-      </c>
-      <c r="D47" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>54</v>
+      <c r="B48">
+        <v>10221910056</v>
       </c>
       <c r="C48" t="s">
-        <v>72</v>
-      </c>
-      <c r="D48" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>55</v>
+      <c r="B49">
+        <v>10221910057</v>
       </c>
       <c r="C49" t="s">
-        <v>73</v>
-      </c>
-      <c r="D49" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>56</v>
+      <c r="B50">
+        <v>10221910058</v>
       </c>
       <c r="C50" t="s">
-        <v>74</v>
-      </c>
-      <c r="D50" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>57</v>
+      <c r="B51">
+        <v>10221910059</v>
       </c>
       <c r="C51" t="s">
-        <v>75</v>
-      </c>
-      <c r="D51" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>58</v>
+      <c r="B52">
+        <v>10221910060</v>
       </c>
       <c r="C52" t="s">
-        <v>76</v>
-      </c>
-      <c r="D52" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>59</v>
+      <c r="B53">
+        <v>10221910061</v>
       </c>
       <c r="C53" t="s">
-        <v>77</v>
-      </c>
-      <c r="D53" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>60</v>
+      <c r="B54">
+        <v>10221910062</v>
       </c>
       <c r="C54" t="s">
-        <v>78</v>
-      </c>
-      <c r="D54" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>61</v>
+      <c r="B55">
+        <v>10221910063</v>
       </c>
       <c r="C55" t="s">
-        <v>79</v>
-      </c>
-      <c r="D55" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>62</v>
+      <c r="B56">
+        <v>10221910064</v>
       </c>
       <c r="C56" t="s">
-        <v>80</v>
-      </c>
-      <c r="D56" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>63</v>
+      <c r="B57">
+        <v>10221910065</v>
       </c>
       <c r="C57" t="s">
-        <v>81</v>
-      </c>
-      <c r="D57" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>64</v>
+      <c r="B58">
+        <v>10221910066</v>
       </c>
       <c r="C58" t="s">
-        <v>82</v>
-      </c>
-      <c r="D58" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>58</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>65</v>
+      <c r="B59">
+        <v>10221910067</v>
       </c>
       <c r="C59" t="s">
-        <v>83</v>
-      </c>
-      <c r="D59" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>
-      <c r="B60" s="1" t="s">
-        <v>66</v>
+      <c r="B60">
+        <v>10224302418</v>
       </c>
       <c r="C60" t="s">
-        <v>84</v>
-      </c>
-      <c r="D60" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1680,11 +1421,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2FBA3C7-AC8D-D74A-9DE0-A3073CBB9467}">
-  <dimension ref="A1:D60"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95D29C76-E5A9-FF49-9C45-9B4160192792}">
+  <dimension ref="A1:C49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42:D60"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1692,7 +1433,7 @@
     <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1700,13 +1441,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1714,13 +1452,10 @@
         <v>10211900453</v>
       </c>
       <c r="C2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1728,808 +1463,513 @@
         <v>10211910056</v>
       </c>
       <c r="C3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>10212740427</v>
+        <v>10213901006</v>
       </c>
       <c r="C4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>10213901006</v>
+        <v>10214302415</v>
       </c>
       <c r="C5" t="s">
-        <v>89</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>10214302415</v>
+        <v>10214501033</v>
       </c>
       <c r="C6" t="s">
-        <v>90</v>
-      </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>10214501033</v>
+        <v>10214501041</v>
       </c>
       <c r="C7" t="s">
-        <v>91</v>
-      </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>10214501041</v>
+        <v>10221900403</v>
       </c>
       <c r="C8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>10214900433</v>
+        <v>10221900404</v>
       </c>
       <c r="C9" t="s">
-        <v>93</v>
-      </c>
-      <c r="D9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>10221900403</v>
+        <v>10221900412</v>
       </c>
       <c r="C10" t="s">
-        <v>94</v>
-      </c>
-      <c r="D10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>10221900404</v>
+        <v>10221900417</v>
       </c>
       <c r="C11" t="s">
-        <v>95</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>10221900407</v>
+        <v>10221900421</v>
       </c>
       <c r="C12" t="s">
-        <v>96</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>10221900410</v>
+        <v>10221900422</v>
       </c>
       <c r="C13" t="s">
-        <v>97</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
-        <v>10221900414</v>
+        <v>10221900426</v>
       </c>
       <c r="C14" t="s">
-        <v>98</v>
-      </c>
-      <c r="D14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
-        <v>10221900415</v>
+        <v>10221900427</v>
       </c>
       <c r="C15" t="s">
-        <v>99</v>
-      </c>
-      <c r="D15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
-        <v>10221900417</v>
+        <v>10221900428</v>
       </c>
       <c r="C16" t="s">
-        <v>100</v>
-      </c>
-      <c r="D16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17">
-        <v>10221900420</v>
+        <v>10221900431</v>
       </c>
       <c r="C17" t="s">
-        <v>101</v>
-      </c>
-      <c r="D17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18">
-        <v>10221900421</v>
+        <v>10221900436</v>
       </c>
       <c r="C18" t="s">
-        <v>102</v>
-      </c>
-      <c r="D18" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19">
-        <v>10221900422</v>
+        <v>10221900437</v>
       </c>
       <c r="C19" t="s">
-        <v>103</v>
-      </c>
-      <c r="D19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20">
-        <v>10221900424</v>
+        <v>10221900438</v>
       </c>
       <c r="C20" t="s">
-        <v>104</v>
-      </c>
-      <c r="D20" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21">
-        <v>10221900426</v>
+        <v>10221900441</v>
       </c>
       <c r="C21" t="s">
-        <v>105</v>
-      </c>
-      <c r="D21" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22">
-        <v>10221900427</v>
+        <v>10221900444</v>
       </c>
       <c r="C22" t="s">
-        <v>106</v>
-      </c>
-      <c r="D22" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23">
-        <v>10221900428</v>
+        <v>10221900447</v>
       </c>
       <c r="C23" t="s">
-        <v>107</v>
-      </c>
-      <c r="D23" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24">
-        <v>10221900431</v>
+        <v>10221910002</v>
       </c>
       <c r="C24" t="s">
-        <v>108</v>
-      </c>
-      <c r="D24" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25">
-        <v>10221900436</v>
+        <v>10221910005</v>
       </c>
       <c r="C25" t="s">
-        <v>109</v>
-      </c>
-      <c r="D25" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26">
-        <v>10221900437</v>
+        <v>10221910010</v>
       </c>
       <c r="C26" t="s">
-        <v>110</v>
-      </c>
-      <c r="D26" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27">
-        <v>10221900438</v>
+        <v>10221910013</v>
       </c>
       <c r="C27" t="s">
-        <v>111</v>
-      </c>
-      <c r="D27" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28">
-        <v>10221900439</v>
+        <v>10221910014</v>
       </c>
       <c r="C28" t="s">
-        <v>112</v>
-      </c>
-      <c r="D28" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29">
-        <v>10221900441</v>
+        <v>10221910015</v>
       </c>
       <c r="C29" t="s">
-        <v>113</v>
-      </c>
-      <c r="D29" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30">
-        <v>10221900444</v>
+        <v>10221910016</v>
       </c>
       <c r="C30" t="s">
-        <v>114</v>
-      </c>
-      <c r="D30" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31">
-        <v>10221900445</v>
+        <v>10221910017</v>
       </c>
       <c r="C31" t="s">
-        <v>115</v>
-      </c>
-      <c r="D31" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32">
-        <v>10221900446</v>
+        <v>10221910018</v>
       </c>
       <c r="C32" t="s">
-        <v>116</v>
-      </c>
-      <c r="D32" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33">
-        <v>10221900447</v>
+        <v>10221910019</v>
       </c>
       <c r="C33" t="s">
-        <v>117</v>
-      </c>
-      <c r="D33" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34">
-        <v>10221900449</v>
+        <v>10221910020</v>
       </c>
       <c r="C34" t="s">
-        <v>118</v>
-      </c>
-      <c r="D34" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35">
-        <v>10221910002</v>
+        <v>10221910021</v>
       </c>
       <c r="C35" t="s">
-        <v>119</v>
-      </c>
-      <c r="D35" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36">
-        <v>10221910005</v>
+        <v>10221910022</v>
       </c>
       <c r="C36" t="s">
-        <v>120</v>
-      </c>
-      <c r="D36" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37">
-        <v>10221910010</v>
+        <v>10221910025</v>
       </c>
       <c r="C37" t="s">
-        <v>121</v>
-      </c>
-      <c r="D37" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38">
-        <v>10221910013</v>
+        <v>10221910029</v>
       </c>
       <c r="C38" t="s">
-        <v>122</v>
-      </c>
-      <c r="D38" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39">
-        <v>10221910014</v>
+        <v>10221910033</v>
       </c>
       <c r="C39" t="s">
-        <v>123</v>
-      </c>
-      <c r="D39" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40">
-        <v>10221910015</v>
+        <v>10221910036</v>
       </c>
       <c r="C40" t="s">
-        <v>124</v>
-      </c>
-      <c r="D40" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41">
-        <v>10221910016</v>
+        <v>10221910037</v>
       </c>
       <c r="C41" t="s">
-        <v>125</v>
-      </c>
-      <c r="D41" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42">
-        <v>10221910017</v>
+        <v>10221910038</v>
       </c>
       <c r="C42" t="s">
-        <v>126</v>
-      </c>
-      <c r="D42" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43">
-        <v>10221910018</v>
+        <v>10221910041</v>
       </c>
       <c r="C43" t="s">
-        <v>127</v>
-      </c>
-      <c r="D43" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44">
-        <v>10221910019</v>
+        <v>10221910044</v>
       </c>
       <c r="C44" t="s">
-        <v>128</v>
-      </c>
-      <c r="D44" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45">
-        <v>10221910020</v>
+        <v>10221910047</v>
       </c>
       <c r="C45" t="s">
-        <v>129</v>
-      </c>
-      <c r="D45" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46">
-        <v>10221910021</v>
+        <v>10221910049</v>
       </c>
       <c r="C46" t="s">
-        <v>130</v>
-      </c>
-      <c r="D46" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47">
-        <v>10221910022</v>
+        <v>10221910054</v>
       </c>
       <c r="C47" t="s">
-        <v>131</v>
-      </c>
-      <c r="D47" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48">
-        <v>10221910025</v>
+        <v>10224302404</v>
       </c>
       <c r="C48" t="s">
-        <v>132</v>
-      </c>
-      <c r="D48" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49">
-        <v>10221910029</v>
+        <v>10224302417</v>
       </c>
       <c r="C49" t="s">
-        <v>133</v>
-      </c>
-      <c r="D49" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50">
-        <v>49</v>
-      </c>
-      <c r="B50">
-        <v>10221910033</v>
-      </c>
-      <c r="C50" t="s">
-        <v>134</v>
-      </c>
-      <c r="D50" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51">
-        <v>50</v>
-      </c>
-      <c r="B51">
-        <v>10221910036</v>
-      </c>
-      <c r="C51" t="s">
-        <v>135</v>
-      </c>
-      <c r="D51" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52">
-        <v>51</v>
-      </c>
-      <c r="B52">
-        <v>10221910037</v>
-      </c>
-      <c r="C52" t="s">
-        <v>136</v>
-      </c>
-      <c r="D52" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53">
-        <v>52</v>
-      </c>
-      <c r="B53">
-        <v>10221910038</v>
-      </c>
-      <c r="C53" t="s">
-        <v>137</v>
-      </c>
-      <c r="D53" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54">
-        <v>53</v>
-      </c>
-      <c r="B54">
-        <v>10221910041</v>
-      </c>
-      <c r="C54" t="s">
-        <v>138</v>
-      </c>
-      <c r="D54" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55">
-        <v>54</v>
-      </c>
-      <c r="B55">
-        <v>10221910044</v>
-      </c>
-      <c r="C55" t="s">
-        <v>139</v>
-      </c>
-      <c r="D55" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56">
-        <v>55</v>
-      </c>
-      <c r="B56">
-        <v>10221910047</v>
-      </c>
-      <c r="C56" t="s">
-        <v>140</v>
-      </c>
-      <c r="D56" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57">
-        <v>56</v>
-      </c>
-      <c r="B57">
-        <v>10221910049</v>
-      </c>
-      <c r="C57" t="s">
-        <v>141</v>
-      </c>
-      <c r="D57" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58">
-        <v>57</v>
-      </c>
-      <c r="B58">
-        <v>10221910054</v>
-      </c>
-      <c r="C58" t="s">
-        <v>142</v>
-      </c>
-      <c r="D58" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59">
-        <v>58</v>
-      </c>
-      <c r="B59">
-        <v>10224302404</v>
-      </c>
-      <c r="C59" t="s">
-        <v>143</v>
-      </c>
-      <c r="D59" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60">
-        <v>59</v>
-      </c>
-      <c r="B60">
-        <v>10224302417</v>
-      </c>
-      <c r="C60" t="s">
-        <v>144</v>
-      </c>
-      <c r="D60" t="s">
-        <v>7</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
